--- a/docs/프로토콜.xlsx
+++ b/docs/프로토콜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mju-my.sharepoint.com/personal/sleepy1001_mju_ac_kr/Documents/학교/2023-2/융캡2/MyongJa_FW/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{A837F3A6-F922-48FF-99B8-8166A3865843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D99FD6-85DE-4C17-B7AD-A2348167F52D}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{A837F3A6-F922-48FF-99B8-8166A3865843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E8E719-C91F-49A9-9960-9A9A9AFAB3CE}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="3105" windowWidth="22695" windowHeight="15285" xr2:uid="{11071A3E-6F36-4C24-93C4-F6C00B063016}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{11071A3E-6F36-4C24-93C4-F6C00B063016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>SOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o -&gt; e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e -&gt; o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,20 +604,20 @@
   <dimension ref="D4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="7" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" customWidth="1"/>
+    <col min="4" max="7" width="10.58203125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="28.875" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -620,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -628,7 +636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -636,7 +644,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
@@ -659,7 +670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>44</v>
@@ -683,7 +694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>44</v>
@@ -707,8 +718,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
@@ -731,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>34</v>
@@ -755,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>34</v>
@@ -779,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -803,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -827,7 +841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>0</v>
       </c>
@@ -844,7 +858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.45">
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>

--- a/docs/프로토콜.xlsx
+++ b/docs/프로토콜.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="D4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/docs/프로토콜.xlsx
+++ b/docs/프로토콜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mju-my.sharepoint.com/personal/sleepy1001_mju_ac_kr/Documents/학교/2023-2/융캡2/MyongJa_FW/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{A837F3A6-F922-48FF-99B8-8166A3865843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E8E719-C91F-49A9-9960-9A9A9AFAB3CE}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{A837F3A6-F922-48FF-99B8-8166A3865843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDE5397-53BE-4558-824F-1C1A113CCD66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{11071A3E-6F36-4C24-93C4-F6C00B063016}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>SOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>e -&gt; o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +608,7 @@
   <dimension ref="D4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -790,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.45">
@@ -838,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.45">

--- a/docs/프로토콜.xlsx
+++ b/docs/프로토콜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mju-my.sharepoint.com/personal/sleepy1001_mju_ac_kr/Documents/학교/2023-2/융캡2/MyongJa_FW/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{A837F3A6-F922-48FF-99B8-8166A3865843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDE5397-53BE-4558-824F-1C1A113CCD66}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{A837F3A6-F922-48FF-99B8-8166A3865843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4396ED-6560-4935-9CB8-8D8CB5BF84B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{11071A3E-6F36-4C24-93C4-F6C00B063016}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>SOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,26 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main esp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub esp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 데이터는 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,23 +186,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o -&gt; e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e -&gt; o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orange Pi -&gt; ESP32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32 -&gt; Orange Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +226,50 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -277,15 +278,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15D3797-30DB-492B-8DDE-743090E726DB}">
-  <dimension ref="D4:L20"/>
+  <dimension ref="E8:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -621,265 +634,242 @@
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
+    <row r="8" spans="5:12" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="5:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="F14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J17" t="s">
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E18" s="1"/>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="G19" t="s">
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.45">
-      <c r="G20" s="1" t="s">
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="G21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="K20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
+      <c r="L21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
